--- a/InputFiles/TC45_Canine_StudyNCATSCOP01-RespToTretmnt_SamplePath_FileAsso.xlsx
+++ b/InputFiles/TC45_Canine_StudyNCATSCOP01-RespToTretmnt_SamplePath_FileAsso.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\davids3\newclone\sofia0324\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4F28E9-0A44-4705-A031-8CF0CA3D1E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143C1CEF-96D4-4498-8A6E-6D86B37B74BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -579,7 +579,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.3"/>
